--- a/Data/Fly_community.xlsx
+++ b/Data/Fly_community.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="106">
   <si>
     <t>Location</t>
   </si>
@@ -689,11 +689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,7 +708,7 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -737,22 +737,19 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -775,7 +772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -797,14 +794,14 @@
       <c r="G3">
         <v>4</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -827,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -850,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -872,11 +869,11 @@
       <c r="G6">
         <v>15</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -902,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -925,7 +922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -951,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -974,7 +971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -996,14 +993,14 @@
       <c r="G11">
         <v>5</v>
       </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
       <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -1026,7 +1023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1049,7 +1046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -1071,11 +1068,11 @@
       <c r="G14">
         <v>45</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1097,11 +1094,11 @@
       <c r="G15">
         <v>40</v>
       </c>
-      <c r="K15">
+      <c r="J15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -1123,11 +1120,11 @@
       <c r="G16">
         <v>41</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -1149,11 +1146,11 @@
       <c r="G17">
         <v>29</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -1175,11 +1172,11 @@
       <c r="G18">
         <v>33</v>
       </c>
-      <c r="K18">
+      <c r="J18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -1201,11 +1198,11 @@
       <c r="G19">
         <v>50</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -1227,14 +1224,14 @@
       <c r="G20">
         <v>32</v>
       </c>
-      <c r="K20">
+      <c r="J20">
         <v>12</v>
       </c>
-      <c r="M20">
+      <c r="L20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -1256,11 +1253,11 @@
       <c r="G21">
         <v>9</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -1282,11 +1279,11 @@
       <c r="G22">
         <v>60</v>
       </c>
-      <c r="L22">
+      <c r="K22">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -1331,11 +1328,11 @@
       <c r="G24">
         <v>65</v>
       </c>
-      <c r="L24">
+      <c r="K24">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -1357,11 +1354,11 @@
       <c r="G25">
         <v>62</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -1383,14 +1380,14 @@
       <c r="G26">
         <v>39</v>
       </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
       <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -1412,14 +1409,14 @@
       <c r="G27">
         <v>13</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="N27">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -1441,11 +1438,11 @@
       <c r="G28">
         <v>21</v>
       </c>
-      <c r="K28">
+      <c r="J28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -1467,14 +1464,14 @@
       <c r="G29">
         <v>30</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -1496,14 +1493,14 @@
       <c r="G30">
         <v>29</v>
       </c>
-      <c r="K30">
+      <c r="J30">
         <v>2</v>
       </c>
-      <c r="M30">
+      <c r="L30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -1526,7 +1523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -1548,14 +1545,14 @@
       <c r="G32">
         <v>30</v>
       </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
       <c r="K32">
-        <v>4</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -1577,17 +1574,17 @@
       <c r="G33">
         <v>15</v>
       </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -1610,7 +1607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -1633,7 +1630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -1655,14 +1652,14 @@
       <c r="G36">
         <v>17</v>
       </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -1684,14 +1681,14 @@
       <c r="G37">
         <v>7</v>
       </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
       <c r="K37">
-        <v>5</v>
-      </c>
-      <c r="L37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -1713,14 +1710,14 @@
       <c r="G38">
         <v>20</v>
       </c>
-      <c r="L38">
+      <c r="K38">
         <v>2</v>
       </c>
-      <c r="N38">
+      <c r="M38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -1743,7 +1740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -1765,11 +1762,11 @@
       <c r="G40">
         <v>23</v>
       </c>
-      <c r="K40">
+      <c r="J40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -1791,17 +1788,17 @@
       <c r="G41">
         <v>10</v>
       </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -1830,19 +1827,16 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K42">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -1871,19 +1865,16 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K43">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L43">
-        <v>10</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -1912,19 +1903,16 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K44">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -1953,19 +1941,16 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K45">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L45">
-        <v>36</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -1994,19 +1979,16 @@
         <v>6</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K46">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2035,19 +2017,16 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L47">
-        <v>5</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -2076,19 +2055,16 @@
         <v>2</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K48">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L48">
-        <v>14</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -2117,19 +2093,16 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -2158,19 +2131,16 @@
         <v>20</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K50">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L50">
-        <v>12</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -2207,11 +2177,8 @@
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -2243,16 +2210,13 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L52">
-        <v>3</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -2284,12 +2248,9 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
         <v>0</v>
       </c>
     </row>
@@ -2301,11 +2262,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2314,7 +2275,7 @@
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -2343,22 +2304,19 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -2381,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -2403,14 +2361,14 @@
       <c r="G3">
         <v>3</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -2433,7 +2391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2456,7 +2414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -2478,11 +2436,11 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -2508,7 +2466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -2530,11 +2488,11 @@
       <c r="G8">
         <v>26</v>
       </c>
-      <c r="K8">
+      <c r="J8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2557,7 +2515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -2580,7 +2538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -2602,14 +2560,14 @@
       <c r="G11">
         <v>4</v>
       </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
       <c r="K11">
         <v>2</v>
       </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2632,7 +2590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -2654,11 +2612,11 @@
       <c r="G13">
         <v>9</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -2680,11 +2638,11 @@
       <c r="G14">
         <v>26</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -2706,11 +2664,11 @@
       <c r="G15">
         <v>21</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -2732,14 +2690,14 @@
       <c r="G16">
         <v>60</v>
       </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -2761,11 +2719,11 @@
       <c r="G17">
         <v>48</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2787,11 +2745,11 @@
       <c r="G18">
         <v>27</v>
       </c>
-      <c r="K18">
+      <c r="J18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -2813,11 +2771,11 @@
       <c r="G19">
         <v>24</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -2839,11 +2797,11 @@
       <c r="G20">
         <v>38</v>
       </c>
-      <c r="K20">
+      <c r="J20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -2865,11 +2823,11 @@
       <c r="G21">
         <v>35</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -2891,11 +2849,11 @@
       <c r="G22">
         <v>28</v>
       </c>
-      <c r="K22">
+      <c r="J22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -2917,11 +2875,11 @@
       <c r="G23">
         <v>32</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -2943,11 +2901,11 @@
       <c r="G24">
         <v>97</v>
       </c>
-      <c r="K24">
+      <c r="J24">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -2970,7 +2928,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -2992,14 +2950,14 @@
       <c r="G26">
         <v>40</v>
       </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
       <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -3022,7 +2980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -3044,14 +3002,14 @@
       <c r="G28">
         <v>20</v>
       </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
       <c r="K28">
         <v>4</v>
       </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -3073,14 +3031,14 @@
       <c r="G29">
         <v>26</v>
       </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -3102,17 +3060,17 @@
       <c r="G30">
         <v>30</v>
       </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
       <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
         <v>3</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3137,11 +3095,11 @@
       <c r="I31">
         <v>2</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -3163,14 +3121,14 @@
       <c r="G32">
         <v>29</v>
       </c>
-      <c r="K32">
+      <c r="J32">
         <v>3</v>
       </c>
-      <c r="M32">
+      <c r="L32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -3195,17 +3153,17 @@
       <c r="I33">
         <v>2</v>
       </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -3227,14 +3185,14 @@
       <c r="G34">
         <v>22</v>
       </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -3256,14 +3214,14 @@
       <c r="G35">
         <v>6</v>
       </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
       <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -3286,7 +3244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -3308,14 +3266,14 @@
       <c r="G37">
         <v>11</v>
       </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
       <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -3337,11 +3295,11 @@
       <c r="G38">
         <v>19</v>
       </c>
-      <c r="K38">
+      <c r="J38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -3363,11 +3321,11 @@
       <c r="G39">
         <v>11</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -3389,17 +3347,17 @@
       <c r="G40">
         <v>24</v>
       </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
       <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
         <v>2</v>
       </c>
-      <c r="N40">
+      <c r="M40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -3421,11 +3379,11 @@
       <c r="G41">
         <v>8</v>
       </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3447,14 +3405,14 @@
       <c r="G42">
         <v>60</v>
       </c>
-      <c r="K42">
+      <c r="J42">
         <v>7</v>
       </c>
-      <c r="M42">
+      <c r="L42">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -3476,14 +3434,14 @@
       <c r="G43">
         <v>30</v>
       </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
       <c r="K43">
-        <v>3</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3505,14 +3463,14 @@
       <c r="G44">
         <v>51</v>
       </c>
-      <c r="K44">
+      <c r="J44">
         <v>11</v>
       </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -3534,14 +3492,14 @@
       <c r="G45">
         <v>34</v>
       </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
       <c r="K45">
-        <v>10</v>
-      </c>
-      <c r="L45">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -3566,11 +3524,11 @@
       <c r="I46">
         <v>2</v>
       </c>
-      <c r="K46">
+      <c r="J46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -3592,14 +3550,14 @@
       <c r="G47">
         <v>58</v>
       </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
       <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -3624,14 +3582,14 @@
       <c r="I48">
         <v>2</v>
       </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
       <c r="K48">
-        <v>8</v>
-      </c>
-      <c r="L48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -3656,14 +3614,14 @@
       <c r="H49">
         <v>1</v>
       </c>
-      <c r="K49">
+      <c r="J49">
         <v>17</v>
       </c>
-      <c r="M49">
+      <c r="L49">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -3688,14 +3646,14 @@
       <c r="I50">
         <v>10</v>
       </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
       <c r="K50">
-        <v>6</v>
-      </c>
-      <c r="L50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -3718,7 +3676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -3740,11 +3698,11 @@
       <c r="G52">
         <v>4</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -3766,11 +3724,11 @@
       <c r="G53">
         <v>12</v>
       </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -3792,14 +3750,14 @@
       <c r="G54">
         <v>40</v>
       </c>
-      <c r="K54">
+      <c r="J54">
         <v>12</v>
       </c>
-      <c r="M54">
+      <c r="L54">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -3821,14 +3779,14 @@
       <c r="G55">
         <v>99</v>
       </c>
+      <c r="J55">
+        <v>12</v>
+      </c>
       <c r="K55">
-        <v>12</v>
-      </c>
-      <c r="L55">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -3850,14 +3808,14 @@
       <c r="G56">
         <v>73</v>
       </c>
-      <c r="K56">
+      <c r="J56">
         <v>12</v>
       </c>
-      <c r="M56">
+      <c r="L56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -3879,14 +3837,14 @@
       <c r="G57">
         <v>66</v>
       </c>
+      <c r="J57">
+        <v>24</v>
+      </c>
       <c r="K57">
-        <v>24</v>
-      </c>
-      <c r="L57">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -3911,11 +3869,11 @@
       <c r="I58">
         <v>4</v>
       </c>
-      <c r="K58">
+      <c r="J58">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -3937,14 +3895,14 @@
       <c r="G59">
         <v>122</v>
       </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
       <c r="K59">
-        <v>10</v>
-      </c>
-      <c r="L59">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -3969,14 +3927,14 @@
       <c r="I60">
         <v>0</v>
       </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
       <c r="K60">
-        <v>2</v>
-      </c>
-      <c r="L60">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -4001,14 +3959,14 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="K61">
-        <v>45</v>
-      </c>
-      <c r="M61">
+      <c r="J61">
+        <v>45</v>
+      </c>
+      <c r="L61">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -4033,14 +3991,14 @@
       <c r="I62">
         <v>10</v>
       </c>
+      <c r="J62">
+        <v>26</v>
+      </c>
       <c r="K62">
-        <v>26</v>
-      </c>
-      <c r="L62">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -4063,7 +4021,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -4085,11 +4043,11 @@
       <c r="G64">
         <v>34</v>
       </c>
-      <c r="L64">
+      <c r="K64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -4111,7 +4069,7 @@
       <c r="G65">
         <v>14</v>
       </c>
-      <c r="L65">
+      <c r="K65">
         <v>0</v>
       </c>
     </row>

--- a/Data/Fly_community.xlsx
+++ b/Data/Fly_community.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="2" r:id="rId1"/>
@@ -86,12 +86,6 @@
     <t>26 – 11- 2024</t>
   </si>
   <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Parlor</t>
-  </si>
-  <si>
     <t>Sweepnet</t>
   </si>
   <si>
@@ -299,9 +293,6 @@
     <t>Tavern</t>
   </si>
   <si>
-    <t>Resturant</t>
-  </si>
-  <si>
     <t>6.38861°N</t>
   </si>
   <si>
@@ -345,6 +336,15 @@
   </si>
   <si>
     <t>5.59583°E</t>
+  </si>
+  <si>
+    <t>Eatery</t>
+  </si>
+  <si>
+    <t>Kitchen (T)</t>
+  </si>
+  <si>
+    <t>Parlor (T)</t>
   </si>
 </sst>
 </file>
@@ -691,9 +691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +710,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -751,307 +751,466 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>129</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4">
+        <v>124</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>36</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>65</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>180</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>140</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>218</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>62</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>148</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>97</v>
@@ -1060,24 +1219,21 @@
         <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14">
-        <v>45</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
@@ -1086,296 +1242,296 @@
         <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>29</v>
-      </c>
-      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18">
-        <v>33</v>
-      </c>
-      <c r="J18">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20">
-        <v>32</v>
-      </c>
-      <c r="J20">
-        <v>12</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G21">
-        <v>9</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G22">
-        <v>60</v>
-      </c>
-      <c r="K22">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G23">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G24">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G25">
-        <v>62</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G26">
         <v>39</v>
@@ -1389,22 +1545,22 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G27">
         <v>13</v>
@@ -1418,114 +1574,105 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G28">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G29">
-        <v>30</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G30">
-        <v>29</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G31">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
@@ -1534,27 +1681,27 @@
         <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G32">
-        <v>30</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
@@ -1563,698 +1710,554 @@
         <v>99</v>
       </c>
       <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40">
+        <v>41</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>29</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>32</v>
+      </c>
+      <c r="J42">
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <v>65</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>62</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46">
+        <v>21</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>30</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
         <v>96</v>
       </c>
-      <c r="E33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33">
-        <v>15</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" t="s">
         <v>105</v>
       </c>
-      <c r="E34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36">
-        <v>17</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37">
-        <v>7</v>
-      </c>
-      <c r="J37">
-        <v>5</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38">
-        <v>20</v>
-      </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40">
-        <v>23</v>
-      </c>
-      <c r="J40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42">
-        <v>100</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>19</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43">
-        <v>129</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>15</v>
-      </c>
-      <c r="K43">
-        <v>10</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44">
-        <v>124</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>23</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45">
-        <v>100</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>34</v>
-      </c>
-      <c r="K45">
-        <v>36</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46">
-        <v>65</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>6</v>
-      </c>
-      <c r="J46">
-        <v>20</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47">
-        <v>180</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>10</v>
-      </c>
-      <c r="K47">
-        <v>5</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" t="s">
-        <v>19</v>
-      </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G48">
-        <v>140</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J48">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K48">
-        <v>14</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G49">
-        <v>218</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J49">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G50">
-        <v>148</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J50">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>12</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G51">
-        <v>84</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G52">
-        <v>38</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
         <v>3</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G53">
-        <v>26</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M53">
+    <sortCondition ref="E2:E53"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2264,9 +2267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2277,7 +2280,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2292,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2318,22 +2321,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2341,22 +2344,22 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2370,22 +2373,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>19</v>
@@ -2393,22 +2396,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -2416,22 +2419,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2442,22 +2445,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -2468,22 +2471,22 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>26</v>
@@ -2494,22 +2497,22 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2517,22 +2520,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -2540,22 +2543,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -2569,22 +2572,22 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>14</v>
@@ -2592,22 +2595,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13">
         <v>9</v>
@@ -2618,22 +2621,22 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14">
         <v>26</v>
@@ -2644,22 +2647,22 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>21</v>
@@ -2670,22 +2673,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>60</v>
@@ -2699,22 +2702,22 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17">
         <v>48</v>
@@ -2725,22 +2728,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>86</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>27</v>
@@ -2751,22 +2754,22 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>86</v>
       </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G19">
         <v>24</v>
@@ -2777,22 +2780,22 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>38</v>
@@ -2803,22 +2806,22 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>35</v>
@@ -2829,22 +2832,22 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22">
         <v>28</v>
@@ -2855,22 +2858,22 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23">
         <v>32</v>
@@ -2881,22 +2884,22 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>97</v>
@@ -2907,22 +2910,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G25">
         <v>78</v>
@@ -2930,22 +2933,22 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G26">
         <v>40</v>
@@ -2959,22 +2962,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G27">
         <v>17</v>
@@ -2982,22 +2985,22 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G28">
         <v>20</v>
@@ -3011,22 +3014,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>26</v>
@@ -3040,22 +3043,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>30</v>
@@ -3072,22 +3075,22 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>27</v>
@@ -3101,22 +3104,22 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G32">
         <v>29</v>
@@ -3130,22 +3133,22 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>7</v>
@@ -3165,22 +3168,22 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G34">
         <v>22</v>
@@ -3194,22 +3197,22 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -3223,22 +3226,22 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>20</v>
@@ -3246,22 +3249,22 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>11</v>
@@ -3275,22 +3278,22 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>19</v>
@@ -3301,22 +3304,22 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G39">
         <v>11</v>
@@ -3327,22 +3330,22 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G40">
         <v>24</v>
@@ -3359,22 +3362,22 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>8</v>
@@ -3385,22 +3388,22 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G42">
         <v>60</v>
@@ -3414,22 +3417,22 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -3443,22 +3446,22 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>51</v>
@@ -3472,22 +3475,22 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G45">
         <v>34</v>
@@ -3501,22 +3504,22 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>18</v>
@@ -3530,22 +3533,22 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>58</v>
@@ -3559,22 +3562,22 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>38</v>
@@ -3591,22 +3594,22 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>69</v>
@@ -3623,22 +3626,22 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G50">
         <v>30</v>
@@ -3655,22 +3658,22 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>33</v>
@@ -3678,22 +3681,22 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -3704,22 +3707,22 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G53">
         <v>12</v>
@@ -3730,22 +3733,22 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G54">
         <v>40</v>
@@ -3759,22 +3762,22 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G55">
         <v>99</v>
@@ -3788,22 +3791,22 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G56">
         <v>73</v>
@@ -3817,22 +3820,22 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G57">
         <v>66</v>
@@ -3846,22 +3849,22 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G58">
         <v>47</v>
@@ -3875,22 +3878,22 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G59">
         <v>122</v>
@@ -3904,22 +3907,22 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G60">
         <v>102</v>
@@ -3936,22 +3939,22 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G61">
         <v>149</v>
@@ -3968,22 +3971,22 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G62">
         <v>118</v>
@@ -4000,22 +4003,22 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G63">
         <v>51</v>
@@ -4023,22 +4026,22 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G64">
         <v>34</v>
@@ -4049,22 +4052,22 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G65">
         <v>14</v>
@@ -4110,7 +4113,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -4128,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -4175,10 +4178,10 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4195,10 +4198,10 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -4221,10 +4224,10 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -4241,10 +4244,10 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -4255,16 +4258,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -4278,16 +4281,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -4301,16 +4304,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>26</v>
@@ -4324,16 +4327,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -4344,16 +4347,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -4364,16 +4367,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -4390,16 +4393,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H12">
         <v>14</v>
@@ -4410,16 +4413,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H13">
         <v>9</v>
@@ -4433,16 +4436,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14">
         <v>26</v>
@@ -4456,16 +4459,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15">
         <v>21</v>
@@ -4479,16 +4482,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16">
         <v>60</v>
@@ -4505,16 +4508,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>48</v>
@@ -4528,16 +4531,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>27</v>
@@ -4551,16 +4554,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>24</v>
@@ -4574,16 +4577,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>38</v>
@@ -4597,16 +4600,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>35</v>
@@ -4620,16 +4623,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H22">
         <v>28</v>
@@ -4643,16 +4646,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>32</v>
@@ -4666,16 +4669,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>97</v>
@@ -4689,22 +4692,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
         <v>36</v>
       </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>78</v>
@@ -4715,16 +4718,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>40</v>
@@ -4741,16 +4744,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>17</v>
@@ -4761,16 +4764,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>20</v>
@@ -4787,16 +4790,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H29">
         <v>26</v>
@@ -4813,16 +4816,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -4842,16 +4845,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H31">
         <v>27</v>
@@ -4868,16 +4871,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H32">
         <v>29</v>
@@ -4894,16 +4897,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H33">
         <v>7</v>
@@ -4926,16 +4929,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
         <v>40</v>
       </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H34">
         <v>22</v>
@@ -4952,16 +4955,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H35">
         <v>6</v>
@@ -4978,16 +4981,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
         <v>40</v>
       </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>20</v>
@@ -4998,16 +5001,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
         <v>40</v>
       </c>
-      <c r="C37" t="s">
-        <v>42</v>
-      </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H37">
         <v>11</v>
@@ -5024,16 +5027,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H38">
         <v>19</v>
@@ -5047,16 +5050,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>11</v>
@@ -5070,16 +5073,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H40">
         <v>24</v>
@@ -5099,16 +5102,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H41">
         <v>8</v>
@@ -5149,7 +5152,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -5161,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -5214,22 +5217,22 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -5275,22 +5278,22 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>30</v>
@@ -5336,22 +5339,22 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>51</v>
@@ -5397,22 +5400,22 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -5458,22 +5461,22 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -5519,22 +5522,22 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>58</v>
@@ -5580,22 +5583,22 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>38</v>
@@ -5644,22 +5647,22 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>69</v>
@@ -5708,22 +5711,22 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -5772,22 +5775,22 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11">
         <v>33</v>
@@ -5827,22 +5830,22 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -5885,22 +5888,22 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -5943,22 +5946,22 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>40</v>
@@ -5972,22 +5975,22 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G15">
         <v>99</v>
@@ -6001,22 +6004,22 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>73</v>
@@ -6030,22 +6033,22 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17">
         <v>66</v>
@@ -6059,22 +6062,22 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>47</v>
@@ -6088,22 +6091,22 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>122</v>
@@ -6117,22 +6120,22 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>102</v>
@@ -6149,22 +6152,22 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>149</v>
@@ -6181,22 +6184,22 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>118</v>
@@ -6213,22 +6216,22 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G23">
         <v>51</v>
@@ -6236,22 +6239,22 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>34</v>
@@ -6262,22 +6265,22 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G25">
         <v>14</v>

--- a/Data/Fly_community.xlsx
+++ b/Data/Fly_community.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="104">
   <si>
     <t>Location</t>
   </si>
@@ -279,12 +279,6 @@
   </si>
   <si>
     <t>Collector</t>
-  </si>
-  <si>
-    <t>Roseline</t>
-  </si>
-  <si>
-    <t>Pelumi</t>
   </si>
   <si>
     <t>6.41139°N</t>
@@ -691,9 +685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,19 +745,19 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -789,7 +783,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -801,7 +795,7 @@
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -827,7 +821,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -839,7 +833,7 @@
         <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -865,7 +859,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -877,7 +871,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -903,7 +897,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -915,7 +909,7 @@
         <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -941,7 +935,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -953,7 +947,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -979,7 +973,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -991,7 +985,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -1017,7 +1011,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -1029,7 +1023,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -1055,7 +1049,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -1067,7 +1061,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1093,7 +1087,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -1105,7 +1099,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -1131,7 +1125,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -1143,7 +1137,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -1169,7 +1163,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -1181,7 +1175,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -1207,19 +1201,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -1230,19 +1224,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -1259,19 +1253,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -1285,19 +1279,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -1311,19 +1305,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -1334,19 +1328,19 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -1363,19 +1357,19 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -1389,19 +1383,19 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
@@ -1415,19 +1409,19 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -1441,19 +1435,19 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
@@ -1467,19 +1461,19 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -1493,19 +1487,19 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -1516,19 +1510,19 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
@@ -1545,19 +1539,19 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
@@ -1574,19 +1568,19 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
@@ -1603,19 +1597,19 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
@@ -1626,19 +1620,19 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
         <v>102</v>
-      </c>
-      <c r="E30" t="s">
-        <v>104</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -1649,19 +1643,19 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
         <v>102</v>
-      </c>
-      <c r="E31" t="s">
-        <v>104</v>
       </c>
       <c r="F31" t="s">
         <v>20</v>
@@ -1672,19 +1666,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
@@ -1701,19 +1695,19 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
@@ -1724,19 +1718,19 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -1747,19 +1741,19 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -1770,19 +1764,19 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
@@ -1793,19 +1787,19 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -1819,19 +1813,19 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -1842,19 +1836,19 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
@@ -1865,19 +1859,19 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -1891,19 +1885,19 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
@@ -1917,19 +1911,19 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -1946,19 +1940,19 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
@@ -1972,19 +1966,19 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -1998,19 +1992,19 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
@@ -2024,19 +2018,19 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -2050,19 +2044,19 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
@@ -2079,19 +2073,19 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -2108,19 +2102,19 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
@@ -2140,19 +2134,19 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
         <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
@@ -2169,19 +2163,19 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
         <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -2198,19 +2192,19 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -2224,19 +2218,19 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
@@ -2267,9 +2261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2321,16 +2315,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -2344,16 +2338,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -2373,16 +2367,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -2396,16 +2390,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -2419,16 +2413,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -2445,16 +2439,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -2471,16 +2465,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -2497,16 +2491,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -2520,16 +2514,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -2543,16 +2537,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -2572,16 +2566,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -2595,16 +2589,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -2621,16 +2615,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -2647,16 +2641,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -2673,16 +2667,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -2702,16 +2696,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -2728,13 +2722,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -2754,13 +2748,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -2780,13 +2774,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
@@ -2806,13 +2800,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
@@ -2832,16 +2826,16 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -2858,16 +2852,16 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -2884,16 +2878,16 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
@@ -2910,16 +2904,16 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
@@ -2933,16 +2927,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -2962,16 +2956,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
         <v>20</v>
@@ -2985,16 +2979,16 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
@@ -3014,16 +3008,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -3043,16 +3037,16 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
@@ -3075,16 +3069,16 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
@@ -3104,16 +3098,16 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -3133,16 +3127,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
         <v>20</v>
@@ -3168,16 +3162,16 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
@@ -3197,16 +3191,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
@@ -3226,16 +3220,16 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -3249,16 +3243,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
@@ -3278,16 +3272,16 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -3304,16 +3298,16 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -3330,16 +3324,16 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -3362,16 +3356,16 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
         <v>20</v>
@@ -3388,13 +3382,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
         <v>52</v>
@@ -3417,7 +3411,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
         <v>54</v>
@@ -3446,7 +3440,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
         <v>55</v>
@@ -3475,7 +3469,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
@@ -3504,7 +3498,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
         <v>57</v>
@@ -3533,7 +3527,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
         <v>58</v>
@@ -3562,7 +3556,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
@@ -3594,7 +3588,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
         <v>60</v>
@@ -3626,7 +3620,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
         <v>61</v>
@@ -3658,7 +3652,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
         <v>62</v>
@@ -3681,7 +3675,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
         <v>63</v>
@@ -3707,7 +3701,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
         <v>64</v>
@@ -3733,13 +3727,13 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
         <v>52</v>
@@ -3762,7 +3756,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
@@ -3791,7 +3785,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
@@ -3820,7 +3814,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
@@ -3849,7 +3843,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
@@ -3878,7 +3872,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
@@ -3907,7 +3901,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
@@ -3939,7 +3933,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -3971,7 +3965,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
@@ -4003,7 +3997,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
@@ -4026,7 +4020,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
@@ -4052,7 +4046,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>

--- a/Data/Fly_community.xlsx
+++ b/Data/Fly_community.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="105">
   <si>
     <t>Location</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Parlor (T)</t>
+  </si>
+  <si>
+    <t>Food_site</t>
   </si>
 </sst>
 </file>
@@ -2263,7 +2266,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,7 +2277,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>

--- a/Data/Fly_community.xlsx
+++ b/Data/Fly_community.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="2" r:id="rId1"/>
     <sheet name="By_sex" sheetId="4" r:id="rId2"/>
-    <sheet name="---" sheetId="1" r:id="rId3"/>
-    <sheet name="--" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="---" sheetId="1" r:id="rId4"/>
+    <sheet name="--" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="109">
   <si>
     <t>Location</t>
   </si>
@@ -342,6 +343,18 @@
   </si>
   <si>
     <t>Food_site</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Sex ratio</t>
+  </si>
+  <si>
+    <t>P value</t>
   </si>
 </sst>
 </file>
@@ -688,9 +701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2264,9 +2277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2697,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -2723,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -2749,7 +2762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -2775,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -2801,7 +2814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2827,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2853,7 +2866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -2879,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -2905,7 +2918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -2928,7 +2941,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -2957,7 +2970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -2979,8 +2992,11 @@
       <c r="G27">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -3009,7 +3025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -3037,8 +3053,11 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -3070,7 +3089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -3099,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -3381,6 +3400,9 @@
       </c>
       <c r="K41">
         <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -4079,6 +4101,221 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>235</v>
+      </c>
+      <c r="E7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>347</v>
+      </c>
+      <c r="E8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R41"/>
   <sheetViews>
@@ -5126,7 +5363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W25"/>
   <sheetViews>

--- a/Data/Fly_community.xlsx
+++ b/Data/Fly_community.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="119">
   <si>
     <t>Location</t>
   </si>
@@ -355,6 +355,36 @@
   </si>
   <si>
     <t>P value</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1:0.3</t>
+  </si>
+  <si>
+    <t>1:0.83</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1:0.71</t>
+  </si>
+  <si>
+    <t>1:0.67</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1:0.63</t>
+  </si>
+  <si>
+    <t>1:0.58</t>
   </si>
 </sst>
 </file>
@@ -390,8 +420,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
     </sheetView>
@@ -4102,211 +4133,274 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>235</v>
+      </c>
+      <c r="D6">
+        <v>148</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>347</v>
+      </c>
+      <c r="D7">
+        <v>202</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>235</v>
-      </c>
-      <c r="E7">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>347</v>
-      </c>
-      <c r="E8">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>36</v>
-      </c>
-      <c r="E14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>3</v>
+      <c r="E15" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Fly_community.xlsx
+++ b/Data/Fly_community.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Git in R\Urban-Ecology\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osawe\Documents\Git\Urban-Ecology\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10055FAA-460B-4575-BA9E-721ADD661E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472" activeTab="2"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="20904" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="2" r:id="rId1"/>
@@ -18,17 +19,28 @@
     <sheet name="---" sheetId="1" r:id="rId4"/>
     <sheet name="--" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="121">
   <si>
     <t>Location</t>
   </si>
@@ -385,12 +397,18 @@
   </si>
   <si>
     <t>1:0.58</t>
+  </si>
+  <si>
+    <t>Lucilia cuprina</t>
+  </si>
+  <si>
+    <t>Lucilia sericata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,27 +459,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R41" totalsRowShown="0">
-  <autoFilter ref="A1:R41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R41" totalsRowShown="0">
+  <autoFilter ref="A1:R41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="sn"/>
-    <tableColumn id="2" name="Date"/>
-    <tableColumn id="3" name="Location"/>
-    <tableColumn id="4" name="Longitude"/>
-    <tableColumn id="5" name="Latitude"/>
-    <tableColumn id="6" name="Collection Method"/>
-    <tableColumn id="7" name="Sex"/>
-    <tableColumn id="8" name="Musca domestica"/>
-    <tableColumn id="9" name="Stomoxys calcitrans"/>
-    <tableColumn id="10" name="Fannia canicularis"/>
-    <tableColumn id="11" name="Muscina spp."/>
-    <tableColumn id="12" name="Ophyra spp."/>
-    <tableColumn id="13" name="Phormiaa regina"/>
-    <tableColumn id="14" name="Musca sorbens"/>
-    <tableColumn id="15" name="Phaenicia sericata"/>
-    <tableColumn id="16" name="Phaenicia cuprina"/>
-    <tableColumn id="17" name="Sarcophaga spp."/>
-    <tableColumn id="18" name="Drosophila spp."/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="sn"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Location"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Longitude"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Latitude"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Collection Method"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sex"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Musca domestica"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Stomoxys calcitrans"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fannia canicularis"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Muscina spp."/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Ophyra spp."/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Phormiaa regina"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Musca sorbens"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Phaenicia sericata"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Phaenicia cuprina"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Sarcophaga spp."/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Drosophila spp."/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -729,12 +747,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,10 +796,10 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -2296,7 +2314,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M53">
     <sortCondition ref="E2:E53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2305,12 +2323,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M36" sqref="M36"/>
+      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2348,10 +2366,10 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -4132,10 +4150,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -4410,7 +4428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
@@ -5458,11 +5476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Fly_community.xlsx
+++ b/Data/Fly_community.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osawe\Documents\Git\Urban-Ecology\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10055FAA-460B-4575-BA9E-721ADD661E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248141F2-75EC-4243-A94F-824DE3C6CB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="20904" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="9615" windowWidth="38700" windowHeight="15825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="122">
   <si>
     <t>Location</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>Lucilia sericata</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -755,19 +758,19 @@
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -808,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -846,7 +849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -884,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -922,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -960,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -1316,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -1781,7 +1784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -2331,13 +2334,13 @@
       <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -3454,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -3570,7 +3573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -3692,7 +3695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -3724,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -3747,7 +3750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>101</v>
       </c>
@@ -4151,19 +4154,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -4182,8 +4185,11 @@
       <c r="F1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4202,8 +4208,12 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>SUM(C2:D2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -4216,8 +4226,12 @@
       <c r="E3" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="0">SUM(C3:D3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4236,8 +4250,12 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -4250,8 +4268,12 @@
       <c r="E5" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -4270,8 +4292,12 @@
       <c r="F6">
         <v>0.58299999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -4284,8 +4310,12 @@
       <c r="E7" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4304,8 +4334,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -4318,8 +4352,12 @@
       <c r="E9" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4338,8 +4376,12 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -4352,8 +4394,12 @@
       <c r="E11" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4372,8 +4418,12 @@
       <c r="F12">
         <v>0.16200000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -4386,8 +4436,12 @@
       <c r="E13" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4406,8 +4460,12 @@
       <c r="F14">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -4419,6 +4477,10 @@
       </c>
       <c r="E15" s="1" t="s">
         <v>109</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4436,28 +4498,28 @@
       <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -4513,7 +4575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4533,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4559,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4579,7 +4641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4599,7 +4661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4622,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4645,7 +4707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4668,7 +4730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4688,7 +4750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4708,7 +4770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4734,7 +4796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4754,7 +4816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4777,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4800,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4823,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4849,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4872,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4895,7 +4957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4918,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4941,7 +5003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4964,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4987,7 +5049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5010,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5033,7 +5095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5059,7 +5121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5085,7 +5147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5105,7 +5167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5131,7 +5193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5157,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5186,7 +5248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5212,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5238,7 +5300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5270,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5296,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5322,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5342,7 +5404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5368,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5391,7 +5453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5414,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5443,7 +5505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5479,24 +5541,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -5561,7 +5623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -5622,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -5683,7 +5745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -5744,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -5805,7 +5867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -5866,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -5927,7 +5989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -5991,7 +6053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -6055,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -6119,7 +6181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -6174,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -6232,7 +6294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -6290,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -6319,7 +6381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -6348,7 +6410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -6377,7 +6439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -6406,7 +6468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -6435,7 +6497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -6464,7 +6526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -6496,7 +6558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -6528,7 +6590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -6560,7 +6622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -6583,7 +6645,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -6609,7 +6671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>

--- a/Data/Fly_community.xlsx
+++ b/Data/Fly_community.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osawe\Documents\Git\Urban-Ecology\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248141F2-75EC-4243-A94F-824DE3C6CB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A80358-485C-40DB-910B-E21DB3F6ADCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="9615" windowWidth="38700" windowHeight="15825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27615" yWindow="3195" windowWidth="23520" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="2" r:id="rId1"/>
@@ -351,9 +351,6 @@
     <t>Kitchen (T)</t>
   </si>
   <si>
-    <t>Parlor (T)</t>
-  </si>
-  <si>
     <t>Food_site</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Parlour (T)</t>
   </si>
 </sst>
 </file>
@@ -753,9 +753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,10 +799,10 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -1798,7 +1798,7 @@
         <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -1821,7 +1821,7 @@
         <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -1844,7 +1844,7 @@
         <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
@@ -1867,7 +1867,7 @@
         <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -1893,7 +1893,7 @@
         <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -1916,7 +1916,7 @@
         <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
@@ -1939,7 +1939,7 @@
         <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -1965,7 +1965,7 @@
         <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
@@ -1991,7 +1991,7 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -2020,7 +2020,7 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
@@ -2046,7 +2046,7 @@
         <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -2072,7 +2072,7 @@
         <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
@@ -2098,7 +2098,7 @@
         <v>91</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -2124,7 +2124,7 @@
         <v>91</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
@@ -2153,7 +2153,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -2182,7 +2182,7 @@
         <v>91</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
@@ -2214,7 +2214,7 @@
         <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
@@ -2243,7 +2243,7 @@
         <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -2272,7 +2272,7 @@
         <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -2298,7 +2298,7 @@
         <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
@@ -2330,7 +2330,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
@@ -2342,7 +2342,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -4156,7 +4156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4168,10 +4168,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
         <v>43</v>
@@ -4180,13 +4180,13 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
-        <v>108</v>
-      </c>
       <c r="G1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G15" si="0">SUM(C3:D3)</f>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -4287,7 +4287,7 @@
         <v>148</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6">
         <v>0.58299999999999996</v>
@@ -4308,7 +4308,7 @@
         <v>202</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -4329,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -4371,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4392,7 +4392,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -4413,7 +4413,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12">
         <v>0.16200000000000001</v>
@@ -4434,7 +4434,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14">
         <v>0.57099999999999995</v>
@@ -4476,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
